--- a/data/trans_orig/IP22D3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22D3_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74D5C755-7912-43CA-B341-57AA36445416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECCAD45-8C33-4140-80C4-51B1E5A9889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95F094DE-EEB1-4508-ADA6-0CBE1266CE2C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08E9079B-E415-437D-979B-F183B8A1589C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="127">
   <si>
     <t>Menores que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
@@ -110,7 +110,7 @@
     <t>No lo pudo recibir por motivos económicos</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -119,40 +119,40 @@
     <t>9,16%</t>
   </si>
   <si>
-    <t>30,93%</t>
+    <t>31,47%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>17,83%</t>
+    <t>16,1%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>49,43%</t>
+    <t>55,68%</t>
   </si>
   <si>
     <t>90,84%</t>
   </si>
   <si>
-    <t>69,07%</t>
+    <t>68,53%</t>
   </si>
   <si>
     <t>90,49%</t>
   </si>
   <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>50,57%</t>
+    <t>44,32%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -161,67 +161,67 @@
     <t>4,94%</t>
   </si>
   <si>
-    <t>25,08%</t>
+    <t>21,83%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>77,72%</t>
   </si>
   <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -233,43 +233,37 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>41,74%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>31,75%</t>
+    <t>35,25%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>68,25%</t>
+    <t>64,75%</t>
   </si>
   <si>
     <t>92,76%</t>
   </si>
   <si>
-    <t>77,11%</t>
+    <t>76,45%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -284,10 +278,10 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -296,19 +290,19 @@
     <t>12,23%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
   </si>
   <si>
     <t>79,18%</t>
   </si>
   <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -317,10 +311,10 @@
     <t>85,03%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -332,73 +326,73 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>19,46%</t>
+    <t>17,94%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>13,85%</t>
+    <t>12,98%</t>
   </si>
   <si>
     <t>13,63%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>83,62%</t>
   </si>
   <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>9,51%</t>
+    <t>8,12%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -407,19 +401,19 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -834,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79E06F5-BD4B-4D2D-9809-DDE5CFE5D05C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7221BA4-0EF5-4ECC-9540-E4F8AB01DDAB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1729,13 +1723,13 @@
         <v>838</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1744,13 +1738,13 @@
         <v>756</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1759,13 +1753,13 @@
         <v>1594</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,10 +1774,10 @@
         <v>9629</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -1795,10 +1789,10 @@
         <v>10795</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -1810,10 +1804,10 @@
         <v>20424</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -1852,7 +1846,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1867,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1918,7 +1912,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,7 +1968,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1986,28 +1980,28 @@
         <v>2253</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -2016,13 +2010,13 @@
         <v>2253</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2031,13 @@
         <v>10487</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2055,7 +2049,7 @@
         <v>17</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>19</v>
@@ -2067,13 +2061,13 @@
         <v>15659</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2109,7 +2103,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2124,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,13 +2133,13 @@
         <v>504</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2160,7 +2154,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2169,13 +2163,13 @@
         <v>504</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2237,13 @@
         <v>6738</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2258,13 +2252,13 @@
         <v>3560</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -2273,13 +2267,13 @@
         <v>10298</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2288,13 @@
         <v>41321</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H30" s="7">
         <v>57</v>
@@ -2309,13 +2303,13 @@
         <v>40800</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M30" s="7">
         <v>110</v>
@@ -2324,13 +2318,13 @@
         <v>82120</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,28 +2339,28 @@
         <v>854</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2375,13 +2369,13 @@
         <v>854</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2390,13 @@
         <v>504</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2417,7 +2411,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2426,13 +2420,13 @@
         <v>504</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,7 +2482,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22D3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22D3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECCAD45-8C33-4140-80C4-51B1E5A9889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FE011EA-A763-45F0-B8BA-E0E9065F7DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08E9079B-E415-437D-979B-F183B8A1589C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2DB68EB5-F13F-405D-947B-0393F132D53F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="120">
   <si>
     <t>Menores que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,355 +65,334 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
+    <t>7,28%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>24,37%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
+    <t>44,06%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -828,8 +807,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7221BA4-0EF5-4ECC-9540-E4F8AB01DDAB}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7CA889-E5FA-4BA6-967A-4114F740DA18}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -946,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -967,85 +946,85 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
       <c r="D5" s="7">
-        <v>671</v>
+        <v>10040</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>1983</v>
+        <v>9300</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="N5" s="7">
-        <v>2654</v>
+        <v>19341</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1054,49 +1033,49 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1105,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1120,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1135,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1150,174 +1129,174 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>671</v>
+        <v>10828</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>1983</v>
+        <v>10225</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N8" s="7">
-        <v>2654</v>
+        <v>21054</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>2009</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>791</v>
+        <v>3810</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>791</v>
+        <v>5820</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>7817</v>
+        <v>18423</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="7">
         <v>17</v>
       </c>
-      <c r="H10" s="7">
-        <v>12</v>
-      </c>
       <c r="I10" s="7">
-        <v>7846</v>
+        <v>13412</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>15663</v>
+        <v>31834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>854</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1326,34 +1305,34 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>854</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1362,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1377,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1392,13 +1371,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,159 +1386,159 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>8671</v>
+        <v>20432</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>8637</v>
+        <v>17222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>17308</v>
+        <v>37654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>3647</v>
+        <v>738</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>2014</v>
+        <v>1045</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>5660</v>
+        <v>1783</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>12717</v>
+        <v>11068</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I15" s="7">
-        <v>15003</v>
+        <v>10656</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>27721</v>
+        <v>21724</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1568,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1583,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1598,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1619,13 +1598,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1634,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1649,13 +1628,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,159 +1643,159 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>16364</v>
+        <v>11806</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>17017</v>
+        <v>11701</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M18" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N18" s="7">
-        <v>33381</v>
+        <v>23507</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>756</v>
+        <v>2273</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>1594</v>
+        <v>2273</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>9629</v>
+        <v>5099</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H20" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" s="7">
-        <v>10795</v>
+        <v>11332</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="M20" s="7">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>20424</v>
+        <v>16431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1825,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1840,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1855,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1876,43 +1855,43 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,159 +1900,159 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>10467</v>
+        <v>5099</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" s="7">
-        <v>11551</v>
+        <v>14124</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N23" s="7">
-        <v>22018</v>
+        <v>19223</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>2253</v>
+        <v>3536</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>7129</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="M24" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>2253</v>
+        <v>10664</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D25" s="7">
-        <v>10487</v>
+        <v>44630</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="I25" s="7">
-        <v>5172</v>
+        <v>44699</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="M25" s="7">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="N25" s="7">
-        <v>15659</v>
+        <v>89329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2082,94 +2061,94 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="7">
-        <v>504</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,319 +2157,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D28" s="7">
-        <v>13244</v>
+        <v>48166</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H28" s="7">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="I28" s="7">
-        <v>5172</v>
+        <v>53272</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M28" s="7">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="N28" s="7">
-        <v>18416</v>
+        <v>101438</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>9</v>
-      </c>
-      <c r="D29" s="7">
-        <v>6738</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="7">
-        <v>6</v>
-      </c>
-      <c r="I29" s="7">
-        <v>3560</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M29" s="7">
-        <v>15</v>
-      </c>
-      <c r="N29" s="7">
-        <v>10298</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>53</v>
-      </c>
-      <c r="D30" s="7">
-        <v>41321</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="7">
-        <v>57</v>
-      </c>
-      <c r="I30" s="7">
-        <v>40800</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M30" s="7">
-        <v>110</v>
-      </c>
-      <c r="N30" s="7">
-        <v>82120</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>854</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="A29" t="s">
         <v>119</v>
       </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>854</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
-        <v>504</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>504</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>64</v>
-      </c>
-      <c r="D33" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="7">
-        <v>63</v>
-      </c>
-      <c r="I33" s="7">
-        <v>44360</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M33" s="7">
-        <v>127</v>
-      </c>
-      <c r="N33" s="7">
-        <v>93777</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>126</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
